--- a/statistics/signed_polarization/signed_intra.xlsx
+++ b/statistics/signed_polarization/signed_intra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\signed_polarization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE89F87-2679-44A0-92A4-FE208F5C8CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489EC90E-375E-45E6-A163-66264921C858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>PS</t>
   </si>
@@ -93,9 +93,6 @@
     <t>science</t>
   </si>
   <si>
-    <t>worldnews</t>
-  </si>
-  <si>
     <t>MensRights</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>consp.</t>
   </si>
   <si>
-    <t>wrldn</t>
-  </si>
-  <si>
     <t>eigensign</t>
   </si>
   <si>
@@ -123,21 +117,6 @@
     <t>WvPatr</t>
   </si>
   <si>
-    <t>2-subreddits</t>
-  </si>
-  <si>
-    <t>Coron. &amp; consp.</t>
-  </si>
-  <si>
-    <t>science &amp; consp.</t>
-  </si>
-  <si>
-    <t>wrldns &amp; consp.</t>
-  </si>
-  <si>
-    <t>WvP &amp; MR</t>
-  </si>
-  <si>
     <t>Coron-consp</t>
   </si>
   <si>
@@ -147,26 +126,32 @@
     <t>Mrights-WvP</t>
   </si>
   <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>14.05</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
     <t>inter</t>
   </si>
   <si>
     <t>intra</t>
+  </si>
+  <si>
+    <t>lgbt</t>
+  </si>
+  <si>
+    <t>Cons.</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>lgbt-Cons.</t>
+  </si>
+  <si>
+    <t>consp.-space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +174,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -405,7 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -423,65 +399,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:S20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,10 +761,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -795,19 +774,19 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -830,11 +809,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="M3" s="21"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
@@ -861,13 +840,13 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4">
         <v>6.7</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -879,19 +858,19 @@
       <c r="N4">
         <v>81267</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>132066</v>
       </c>
       <c r="P4">
         <v>1923</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>2488</v>
       </c>
       <c r="R4">
         <v>82554</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="22">
         <v>134614</v>
       </c>
     </row>
@@ -902,13 +881,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="12">
         <v>14.07</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="7">
@@ -920,19 +899,19 @@
       <c r="N5">
         <v>48592</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="21">
         <v>95555</v>
       </c>
       <c r="P5">
         <v>8029</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="21">
         <v>10987</v>
       </c>
       <c r="R5">
         <v>53675</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="22">
         <v>105820</v>
       </c>
     </row>
@@ -943,13 +922,13 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="29">
         <v>4.25</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6">
         <v>150</v>
       </c>
       <c r="G6" s="7">
@@ -961,19 +940,19 @@
       <c r="N6">
         <v>77872</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <v>96411</v>
       </c>
       <c r="P6">
         <v>604</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="21">
         <v>672</v>
       </c>
       <c r="R6">
         <v>78757</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="22">
         <v>97632</v>
       </c>
     </row>
@@ -984,292 +963,260 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="35">
-        <v>2.78</v>
-      </c>
-      <c r="F7" s="35">
+      <c r="E7" s="10">
+        <v>9.94</v>
+      </c>
+      <c r="F7" s="10">
+        <v>127</v>
+      </c>
+      <c r="G7" s="32">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7">
+      <c r="N7" s="10">
+        <v>10359</v>
+      </c>
+      <c r="O7" s="25">
+        <v>16727</v>
+      </c>
+      <c r="P7" s="10">
+        <v>827</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>1035</v>
+      </c>
+      <c r="R7" s="10">
+        <v>10974</v>
+      </c>
+      <c r="S7" s="26">
+        <v>17761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="30">
+        <v>6.7</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>149</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="8">
+        <v>15621</v>
+      </c>
+      <c r="O8" s="23">
+        <v>24848</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1048</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1186</v>
+      </c>
+      <c r="R8" s="8">
+        <v>15957</v>
+      </c>
+      <c r="S8" s="24">
+        <v>25497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="F9" s="10">
+        <v>48</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>69</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5.27</v>
+      </c>
+      <c r="F11" s="10">
+        <v>30</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="43"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M14" s="44"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M15" s="16"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="17"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>6.67</v>
+      </c>
+      <c r="F20">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="12">
+        <v>14.05</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="9">
-        <v>57995</v>
-      </c>
-      <c r="O7" s="24">
-        <v>43258</v>
-      </c>
-      <c r="P7" s="9">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>55</v>
-      </c>
-      <c r="R7" s="9">
-        <v>58061</v>
-      </c>
-      <c r="S7" s="25">
-        <v>79120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="35">
-        <v>9.94</v>
-      </c>
-      <c r="F8" s="35">
-        <v>127</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="11">
-        <v>10359</v>
-      </c>
-      <c r="O8" s="26">
-        <v>16727</v>
-      </c>
-      <c r="P8" s="11">
-        <v>827</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>1035</v>
-      </c>
-      <c r="R8" s="11">
-        <v>10974</v>
-      </c>
-      <c r="S8" s="27">
-        <v>17761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="G21" s="7">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="34">
         <v>6.7</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F22" s="35">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G22" s="36">
         <v>149</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="M9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="9">
-        <v>15621</v>
-      </c>
-      <c r="O9" s="24">
-        <v>24848</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1048</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>1186</v>
-      </c>
-      <c r="R9" s="9">
-        <v>15957</v>
-      </c>
-      <c r="S9" s="25">
-        <v>25497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="32" t="s">
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="35">
+        <v>7.18</v>
+      </c>
+      <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="M13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="35">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="G23" s="36">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="35">
+        <v>2.84</v>
+      </c>
+      <c r="F24" s="35">
+        <v>33</v>
+      </c>
+      <c r="G24" s="36">
         <v>0</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="35">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>452</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15">
-        <v>128088</v>
-      </c>
-      <c r="O15">
-        <v>227621</v>
-      </c>
-      <c r="P15">
-        <v>9943</v>
-      </c>
-      <c r="Q15">
-        <v>13475</v>
-      </c>
-      <c r="R15">
-        <v>134345</v>
-      </c>
-      <c r="S15" s="7">
-        <v>240434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>149</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16">
-        <v>95150</v>
-      </c>
-      <c r="O16">
-        <v>152372</v>
-      </c>
-      <c r="R16">
-        <v>130699</v>
-      </c>
-      <c r="S16" s="7">
-        <v>203451</v>
-      </c>
-    </row>
-    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>105277</v>
-      </c>
-      <c r="O17">
-        <v>174561</v>
-      </c>
-      <c r="P17">
-        <v>8078</v>
-      </c>
-      <c r="Q17">
-        <v>11042</v>
-      </c>
-      <c r="R17">
-        <v>110347</v>
-      </c>
-      <c r="S17" s="7">
-        <v>184939</v>
-      </c>
-    </row>
-    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="9">
-        <v>25957</v>
-      </c>
-      <c r="O18" s="9">
-        <v>41575</v>
-      </c>
-      <c r="P18" s="9">
-        <v>1874</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>2221</v>
-      </c>
-      <c r="R18" s="9">
-        <v>26907</v>
-      </c>
-      <c r="S18" s="10">
-        <v>43258</v>
       </c>
     </row>
   </sheetData>
@@ -1277,15 +1224,15 @@
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
